--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Siebenrock/Friedrich_Siebenrock.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Siebenrock/Friedrich_Siebenrock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Siebenrock est un zoologiste autrichien, né le 20 janvier 1853 à Schörfling près d’Attersee en Autriche et mort le 28 janvier 1925 dans ce même village.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études à Innsbruck et à  Vienne, Friedrich Siebenrock est démonstrateur pendant de nombreuses années à l’institut de zoologie de l’université de Vienne sous la direction de Carl Bernhard Brühl (1820-1899).
 À partir de janvier 1886, il travaille bénévolement au Muséum d’histoire naturelle de Vienne. En décembre de la même année, il devient l’assistant de Franz Steindachner (1834-1919). En 1895, il devient conservateur des collections de vertébrés inférieurs. En 1895 puis en 1897, il accompagne Steindachner durant la première et la seconde expédition autrichienne en mer Rouge.
@@ -545,10 +559,12 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Franz Tiedemann et Heinz Grillitsch (1997). A History of the Herpetological Collection at the Naturhistorisches Museum Wien, Collection building in ichthyology and herpetology (Theodore W. Pietsch et William D. Anderson dir.), Special publication, number 3, American Society of Ichthyologists and Herpetologists : 108-114.  (ISBN 0-935868-91-7)
-Franz Tiedemann und Heinz Grillitsch: Friedrich Siebenrock 1853–1925. En: Herpetozoa 1 (3/4): 109–118, Wien, 25. Fevruar 1989 [1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franz Tiedemann et Heinz Grillitsch (1997). A History of the Herpetological Collection at the Naturhistorisches Museum Wien, Collection building in ichthyology and herpetology (Theodore W. Pietsch et William D. Anderson dir.), Special publication, number 3, American Society of Ichthyologists and Herpetologists : 108-114.  (ISBN 0-935868-91-7)
+Franz Tiedemann und Heinz Grillitsch: Friedrich Siebenrock 1853–1925. En: Herpetozoa 1 (3/4): 109–118, Wien, 25. Fevruar 1989 </t>
         </is>
       </c>
     </row>
